--- a/Data/Student/sinhvien_chieu_nhom2.xlsx
+++ b/Data/Student/sinhvien_chieu_nhom2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK6 2019 - 2020\Data WAREHOUSE\DIR\Student\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA2E5CB-9041-4AA1-A0C3-102D0B993F69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,16 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="198">
-  <si>
-    <t>17130212</t>
-  </si>
-  <si>
-    <t>Nguyễn Quyết</t>
-  </si>
-  <si>
-    <t>Thắng</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="182">
   <si>
     <t>DH17DTB</t>
   </si>
@@ -33,33 +30,6 @@
     <t>Công nghệ thông tin b</t>
   </si>
   <si>
-    <t>17130077</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc</t>
-  </si>
-  <si>
-    <t>Hồng</t>
-  </si>
-  <si>
-    <t>17130262</t>
-  </si>
-  <si>
-    <t>Từ Thị Hoài</t>
-  </si>
-  <si>
-    <t>Tú</t>
-  </si>
-  <si>
-    <t>17130012</t>
-  </si>
-  <si>
-    <t>Lê Nguyễn Nhật</t>
-  </si>
-  <si>
-    <t>Bình</t>
-  </si>
-  <si>
     <t>DH17DTA</t>
   </si>
   <si>
@@ -478,18 +448,6 @@
   </si>
   <si>
     <t>0314943168</t>
-  </si>
-  <si>
-    <t>17130212@st.hcmuaf.edu.vn</t>
-  </si>
-  <si>
-    <t>17130077@st.hcmuaf.edu.vn</t>
-  </si>
-  <si>
-    <t>17130262@st.hcmuaf.edu.vn</t>
-  </si>
-  <si>
-    <t>17130012@st.hcmuaf.edu.vn</t>
   </si>
   <si>
     <t>16130311@st.hcmuaf.edu.vn</t>
@@ -615,7 +573,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;0&quot;#"/>
   </numFmts>
@@ -623,7 +581,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -631,21 +589,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -653,7 +611,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -661,7 +619,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -669,35 +627,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -705,7 +663,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -713,14 +671,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -728,14 +686,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -743,7 +701,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -751,21 +709,21 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -773,7 +731,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -782,13 +740,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -796,14 +754,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1206,53 +1164,53 @@
     </xf>
   </cellXfs>
   <cellStyles count="47">
-    <cellStyle name="20% - Accent1 2" xfId="20"/>
-    <cellStyle name="20% - Accent2 2" xfId="24"/>
-    <cellStyle name="20% - Accent3 2" xfId="28"/>
-    <cellStyle name="20% - Accent4 2" xfId="32"/>
-    <cellStyle name="20% - Accent5 2" xfId="36"/>
-    <cellStyle name="20% - Accent6 2" xfId="40"/>
-    <cellStyle name="40% - Accent1 2" xfId="21"/>
-    <cellStyle name="40% - Accent2 2" xfId="25"/>
-    <cellStyle name="40% - Accent3 2" xfId="29"/>
-    <cellStyle name="40% - Accent4 2" xfId="33"/>
-    <cellStyle name="40% - Accent5 2" xfId="37"/>
-    <cellStyle name="40% - Accent6 2" xfId="41"/>
-    <cellStyle name="60% - Accent1 2" xfId="22"/>
-    <cellStyle name="60% - Accent2 2" xfId="26"/>
-    <cellStyle name="60% - Accent3 2" xfId="30"/>
-    <cellStyle name="60% - Accent4 2" xfId="34"/>
-    <cellStyle name="60% - Accent5 2" xfId="38"/>
-    <cellStyle name="60% - Accent6 2" xfId="42"/>
-    <cellStyle name="Accent1 2" xfId="19"/>
-    <cellStyle name="Accent2 2" xfId="23"/>
-    <cellStyle name="Accent3 2" xfId="27"/>
-    <cellStyle name="Accent4 2" xfId="31"/>
-    <cellStyle name="Accent5 2" xfId="35"/>
-    <cellStyle name="Accent6 2" xfId="39"/>
-    <cellStyle name="Bad 2" xfId="8"/>
-    <cellStyle name="Calculation 2" xfId="12"/>
-    <cellStyle name="Check Cell 2" xfId="14"/>
-    <cellStyle name="Explanatory Text 2" xfId="17"/>
+    <cellStyle name="20% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Calculation 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Check Cell 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Good" xfId="43" builtinId="26"/>
-    <cellStyle name="Good 2" xfId="7"/>
-    <cellStyle name="Heading 1 2" xfId="3"/>
-    <cellStyle name="Heading 2 2" xfId="4"/>
-    <cellStyle name="Heading 3 2" xfId="5"/>
-    <cellStyle name="Heading 4 2" xfId="6"/>
+    <cellStyle name="Good 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Heading 1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Heading 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Heading 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Heading 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="46"/>
-    <cellStyle name="Input 2" xfId="10"/>
-    <cellStyle name="Linked Cell 2" xfId="13"/>
-    <cellStyle name="Neutral 2" xfId="9"/>
+    <cellStyle name="Hyperlink 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Input 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Neutral 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="44"/>
-    <cellStyle name="Note 2" xfId="16"/>
-    <cellStyle name="Output 2" xfId="11"/>
-    <cellStyle name="Title 2" xfId="2"/>
-    <cellStyle name="Total 2" xfId="18"/>
-    <cellStyle name="Warning Text 2" xfId="15"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal 3" xfId="44" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Note 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Output 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Title 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Total 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Warning Text 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1273,18 +1231,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" hidden="1"/>
+        <xdr:cNvPr id="2" name="Picture 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvPicPr>
@@ -1324,13 +1288,19 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914400" cy="739140"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" hidden="1"/>
+        <xdr:cNvPr id="3" name="Picture 2" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvPicPr>
@@ -1412,7 +1382,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1445,9 +1415,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1480,6 +1467,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1655,264 +1659,264 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="10" customWidth="1"/>
     <col min="2" max="2" width="17" style="10" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="10" customWidth="1"/>
-    <col min="4" max="5" width="21.140625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="35.140625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="10"/>
+    <col min="3" max="3" width="22.625" style="10" customWidth="1"/>
+    <col min="4" max="5" width="21.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="10" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="10" customWidth="1"/>
+    <col min="9" max="9" width="35.125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="11">
+        <v>34651</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="H2" s="5">
+        <v>546787587</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="11">
+        <v>34700</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="5">
+        <v>986346536</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="11">
+        <v>34534</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5">
+        <v>567698898</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="11">
+        <v>34879</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="11">
-        <v>33825</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="5">
-        <v>785678467</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="11">
-        <v>34681</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5">
-        <v>254367689</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="H5" s="5">
+        <v>967976899</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="11">
+        <v>34750</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>698797896</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>10</v>
       </c>
-      <c r="E4" s="11">
-        <v>34723</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="5">
-        <v>578678989</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="11">
+        <v>34655</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>679876979</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="11">
-        <v>34825</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="5">
-        <v>856876584</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="11">
-        <v>34651</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="5">
-        <v>546787587</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="11">
-        <v>34700</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="5">
-        <v>986346536</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>24</v>
@@ -1924,160 +1928,160 @@
         <v>26</v>
       </c>
       <c r="E8" s="11">
-        <v>34534</v>
+        <v>34992</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="5">
+        <v>987976898</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="11">
+        <v>34758</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="5">
+        <v>897978999</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="11">
+        <v>34908</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="5">
+        <v>679880969</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>14</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="11">
+        <v>34874</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="5">
+        <v>568756861</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>15</v>
       </c>
-      <c r="H8" s="5">
-        <v>567698898</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="11">
-        <v>34879</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="11">
+        <v>34293</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="5">
-        <v>967976899</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="11">
-        <v>34750</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="5">
-        <v>698797896</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="11">
-        <v>34655</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="5">
-        <v>679876979</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="11">
-        <v>34992</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="H12" s="5">
-        <v>987976898</v>
+        <v>567858568</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>41</v>
@@ -2089,292 +2093,292 @@
         <v>43</v>
       </c>
       <c r="E13" s="11">
-        <v>34758</v>
+        <v>34749</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>678769798</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="C14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="5">
-        <v>897978999</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="E14" s="11">
+        <v>35170</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>769878999</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="11">
-        <v>34908</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="5">
-        <v>679880969</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="11">
+        <v>35081</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="11">
-        <v>34874</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="5">
-        <v>568756861</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="11">
+        <v>35421</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="11">
-        <v>34293</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="5">
-        <v>567858568</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="E17" s="11">
-        <v>34749</v>
+        <v>35023</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="5">
-        <v>678769798</v>
+        <v>1</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>52</v>
+        <v>21</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="E18" s="11">
         <v>35170</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="5">
-        <v>769878999</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>170</v>
+      <c r="H18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>60</v>
+        <v>22</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E19" s="11">
-        <v>35081</v>
-      </c>
-      <c r="F19" s="4" t="s">
+        <v>35412</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>23</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="11">
+        <v>35226</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="H20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>24</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="11">
+        <v>34715</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="11">
-        <v>35421</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="11">
-        <v>35023</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>176</v>
+        <v>129</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>71</v>
@@ -2386,94 +2390,94 @@
         <v>73</v>
       </c>
       <c r="E22" s="11">
-        <v>35170</v>
+        <v>35339</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>74</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" s="11">
-        <v>35412</v>
+        <v>35345</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>27</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="E24" s="11">
-        <v>35226</v>
+        <v>35334</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
+      </c>
+      <c r="H24" s="5">
+        <v>698769789</v>
       </c>
       <c r="I24" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>80</v>
@@ -2482,196 +2486,196 @@
         <v>81</v>
       </c>
       <c r="D25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="11">
+        <v>35351</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="5">
+        <v>679868658</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>29</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="11">
-        <v>34715</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="D26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="11">
+        <v>35379</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="5">
+        <v>969679879</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>30</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="11">
-        <v>35339</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8" t="s">
+      <c r="E27" s="11">
+        <v>35387</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="5">
+        <v>679889679</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>31</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="11">
-        <v>35345</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="E28" s="11">
+        <v>34809</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>32</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="11">
+        <v>35334</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>33</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="11">
+        <v>35392</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="11">
-        <v>35334</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="5">
-        <v>698769789</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="G30" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="11">
-        <v>35351</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="5">
-        <v>679868658</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="11">
-        <v>35379</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="5">
-        <v>969679879</v>
+      <c r="H30" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>96</v>
@@ -2683,28 +2687,28 @@
         <v>98</v>
       </c>
       <c r="E31" s="11">
-        <v>35387</v>
+        <v>34938</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="5">
-        <v>679889679</v>
+        <v>3</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>99</v>
@@ -2716,28 +2720,28 @@
         <v>101</v>
       </c>
       <c r="E32" s="11">
-        <v>34809</v>
+        <v>35378</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>102</v>
@@ -2749,28 +2753,28 @@
         <v>104</v>
       </c>
       <c r="E33" s="11">
-        <v>35334</v>
+        <v>35401</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>105</v>
@@ -2782,324 +2786,188 @@
         <v>107</v>
       </c>
       <c r="E34" s="11">
-        <v>35392</v>
+        <v>35341</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>108</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="E35" s="11">
+        <v>35214</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="11">
-        <v>34938</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="G35" s="8" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E36" s="11">
         <v>35378</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="E37" s="11">
-        <v>35401</v>
+        <v>34763</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E38" s="11">
-        <v>35341</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E39" s="11">
-        <v>35214</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>39</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="11">
-        <v>35378</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>40</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" s="11">
-        <v>34763</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K41" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="I7" r:id="rId5"/>
-    <hyperlink ref="I6" r:id="rId6"/>
-    <hyperlink ref="I8" r:id="rId7"/>
-    <hyperlink ref="I9" r:id="rId8"/>
-    <hyperlink ref="I11" r:id="rId9"/>
-    <hyperlink ref="I10" r:id="rId10"/>
-    <hyperlink ref="I12" r:id="rId11"/>
-    <hyperlink ref="I13" r:id="rId12"/>
-    <hyperlink ref="I15" r:id="rId13"/>
-    <hyperlink ref="I14" r:id="rId14"/>
-    <hyperlink ref="I16" r:id="rId15"/>
-    <hyperlink ref="I17" r:id="rId16"/>
-    <hyperlink ref="I18" r:id="rId17"/>
-    <hyperlink ref="I19" r:id="rId18"/>
-    <hyperlink ref="I40" r:id="rId19"/>
-    <hyperlink ref="I39" r:id="rId20"/>
-    <hyperlink ref="I20" r:id="rId21"/>
-    <hyperlink ref="I21" r:id="rId22"/>
-    <hyperlink ref="I22" r:id="rId23"/>
-    <hyperlink ref="I23" r:id="rId24"/>
-    <hyperlink ref="I24" r:id="rId25"/>
-    <hyperlink ref="I25" r:id="rId26"/>
-    <hyperlink ref="I26" r:id="rId27"/>
-    <hyperlink ref="I41" r:id="rId28"/>
-    <hyperlink ref="I27" r:id="rId29"/>
-    <hyperlink ref="I28" r:id="rId30"/>
-    <hyperlink ref="I29" r:id="rId31"/>
-    <hyperlink ref="I30" r:id="rId32"/>
-    <hyperlink ref="I31" r:id="rId33"/>
-    <hyperlink ref="I32" r:id="rId34"/>
-    <hyperlink ref="I33" r:id="rId35"/>
-    <hyperlink ref="I34" r:id="rId36"/>
-    <hyperlink ref="I35" r:id="rId37"/>
-    <hyperlink ref="I36" r:id="rId38"/>
-    <hyperlink ref="I37" r:id="rId39"/>
-    <hyperlink ref="I38" r:id="rId40"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I36" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I35" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="I16" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I17" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I18" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I19" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="I20" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I21" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="I22" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I37" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="I23" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I24" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I25" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I26" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I27" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I28" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I29" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I30" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I31" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I32" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="I33" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I34" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
-  <drawing r:id="rId42"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <drawing r:id="rId38"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
